--- a/info/payload.xlsx
+++ b/info/payload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattm\Desktop\Coding\hycsg\rocket-radio\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C0016-68E2-488D-8C70-AB09EFA26156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49B5DA-97EA-4823-9964-A53357922F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Pro Micro 3.3V</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>LSM6DS33</t>
-  </si>
-  <si>
-    <t>HC-12</t>
   </si>
   <si>
     <t>100mAh LiPo Battery</t>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Wires and solder</t>
+  </si>
+  <si>
+    <t>LoRa Module</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -514,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -525,21 +528,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3.8</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -548,22 +551,22 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8">
         <f>SUM(B2:B7)</f>
-        <v>15.6</v>
+        <v>11.8</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -581,7 +584,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
